--- a/qr_generator/qr_generator/bin/Debug/ticket.xlsx
+++ b/qr_generator/qr_generator/bin/Debug/ticket.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerrywong/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA8F6E11-8EF6-E344-965E-1C139E97C453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D89251A-2F95-DA45-B7F0-8E87996BE4C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20840"/>
   </bookViews>
@@ -1911,9 +1911,6 @@
     <t>Waynes Seto</t>
   </si>
   <si>
-    <t xml:space="preserve">Maric </t>
-  </si>
-  <si>
     <t xml:space="preserve">National President </t>
   </si>
   <si>
@@ -2485,9 +2482,6 @@
   </si>
   <si>
     <t>A23</t>
-  </si>
-  <si>
-    <t>Zenith</t>
   </si>
   <si>
     <t>National Immidiate Past President</t>
@@ -3713,10 +3707,6 @@
   </si>
   <si>
     <t>JCI Japan National President</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>JCI Singapore National President</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4014,6 +4004,15 @@
   <si>
     <t>QR</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zenith Lin</t>
+  </si>
+  <si>
+    <t>Maric Cheng</t>
+  </si>
+  <si>
+    <t>JCI Singapore National President</t>
   </si>
 </sst>
 </file>
@@ -4109,7 +4108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4130,6 +4129,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -4348,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="E639" sqref="E639"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -4370,10 +4373,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4390,7 +4393,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="9">
-        <v>12605</v>
+        <v>13238</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -4422,7 +4425,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="9">
-        <v>12606</v>
+        <v>13239</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -4454,7 +4457,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="9">
-        <v>12607</v>
+        <v>13240</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -4486,7 +4489,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="9">
-        <v>12608</v>
+        <v>13241</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -4518,7 +4521,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="9">
-        <v>12609</v>
+        <v>13242</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -4550,7 +4553,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="9">
-        <v>12610</v>
+        <v>13243</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4582,7 +4585,7 @@
         <v>65</v>
       </c>
       <c r="E8" s="9">
-        <v>12611</v>
+        <v>13244</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -4614,7 +4617,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="9">
-        <v>12612</v>
+        <v>13245</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -4646,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="E10" s="9">
-        <v>12613</v>
+        <v>13246</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4678,7 +4681,7 @@
         <v>84</v>
       </c>
       <c r="E11" s="9">
-        <v>12614</v>
+        <v>13247</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4710,7 +4713,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="9">
-        <v>12615</v>
+        <v>13248</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4742,7 +4745,7 @@
         <v>92</v>
       </c>
       <c r="E13" s="9">
-        <v>12616</v>
+        <v>13249</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4774,7 +4777,7 @@
         <v>96</v>
       </c>
       <c r="E14" s="9">
-        <v>12617</v>
+        <v>13250</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4806,7 +4809,7 @@
         <v>98</v>
       </c>
       <c r="E15" s="9">
-        <v>12618</v>
+        <v>13251</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -4838,7 +4841,7 @@
         <v>101</v>
       </c>
       <c r="E16" s="9">
-        <v>12619</v>
+        <v>13252</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -4870,7 +4873,7 @@
         <v>109</v>
       </c>
       <c r="E17" s="9">
-        <v>12620</v>
+        <v>13253</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -4902,7 +4905,7 @@
         <v>115</v>
       </c>
       <c r="E18" s="9">
-        <v>12621</v>
+        <v>13254</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -4934,7 +4937,7 @@
         <v>124</v>
       </c>
       <c r="E19" s="9">
-        <v>12622</v>
+        <v>13255</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -4966,7 +4969,7 @@
         <v>131</v>
       </c>
       <c r="E20" s="9">
-        <v>12623</v>
+        <v>13256</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -4998,7 +5001,7 @@
         <v>142</v>
       </c>
       <c r="E21" s="9">
-        <v>12624</v>
+        <v>13257</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -5021,7 +5024,7 @@
         <v>145</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>170</v>
@@ -5030,7 +5033,7 @@
         <v>149</v>
       </c>
       <c r="E22" s="9">
-        <v>12625</v>
+        <v>13258</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -5053,7 +5056,7 @@
         <v>153</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>170</v>
@@ -5062,7 +5065,7 @@
         <v>155</v>
       </c>
       <c r="E23" s="9">
-        <v>12626</v>
+        <v>13259</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -5082,10 +5085,10 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>170</v>
@@ -5094,7 +5097,7 @@
         <v>160</v>
       </c>
       <c r="E24" s="9">
-        <v>12627</v>
+        <v>13260</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -5114,10 +5117,10 @@
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>170</v>
@@ -5126,7 +5129,7 @@
         <v>165</v>
       </c>
       <c r="E25" s="9">
-        <v>12628</v>
+        <v>13261</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -5149,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>4</v>
@@ -5158,7 +5161,7 @@
         <v>171</v>
       </c>
       <c r="E26" s="9">
-        <v>12629</v>
+        <v>13262</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -5181,7 +5184,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>4</v>
@@ -5190,7 +5193,7 @@
         <v>176</v>
       </c>
       <c r="E27" s="9">
-        <v>12630</v>
+        <v>13263</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -5222,7 +5225,7 @@
         <v>183</v>
       </c>
       <c r="E28" s="9">
-        <v>12631</v>
+        <v>13264</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -5242,10 +5245,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>170</v>
@@ -5254,7 +5257,7 @@
         <v>188</v>
       </c>
       <c r="E29" s="9">
-        <v>12632</v>
+        <v>13265</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -5286,7 +5289,7 @@
         <v>197</v>
       </c>
       <c r="E30" s="9">
-        <v>12633</v>
+        <v>13266</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -5306,10 +5309,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>170</v>
@@ -5318,7 +5321,7 @@
         <v>202</v>
       </c>
       <c r="E31" s="9">
-        <v>12634</v>
+        <v>13267</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -5350,7 +5353,7 @@
         <v>209</v>
       </c>
       <c r="E32" s="9">
-        <v>12635</v>
+        <v>13268</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -5382,7 +5385,7 @@
         <v>215</v>
       </c>
       <c r="E33" s="9">
-        <v>12636</v>
+        <v>13269</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -5412,7 +5415,7 @@
         <v>222</v>
       </c>
       <c r="E34" s="9">
-        <v>12637</v>
+        <v>13270</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -5432,10 +5435,10 @@
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>170</v>
@@ -5444,7 +5447,7 @@
         <v>226</v>
       </c>
       <c r="E35" s="9">
-        <v>12638</v>
+        <v>13271</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -5476,7 +5479,7 @@
         <v>232</v>
       </c>
       <c r="E36" s="9">
-        <v>12639</v>
+        <v>13272</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -5508,7 +5511,7 @@
         <v>238</v>
       </c>
       <c r="E37" s="9">
-        <v>12640</v>
+        <v>13273</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -5540,7 +5543,7 @@
         <v>244</v>
       </c>
       <c r="E38" s="9">
-        <v>12641</v>
+        <v>13274</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -5572,7 +5575,7 @@
         <v>249</v>
       </c>
       <c r="E39" s="9">
-        <v>12642</v>
+        <v>13275</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
@@ -5604,7 +5607,7 @@
         <v>254</v>
       </c>
       <c r="E40" s="9">
-        <v>12643</v>
+        <v>13276</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -5636,7 +5639,7 @@
         <v>258</v>
       </c>
       <c r="E41" s="9">
-        <v>12644</v>
+        <v>13277</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -5668,7 +5671,7 @@
         <v>263</v>
       </c>
       <c r="E42" s="9">
-        <v>12645</v>
+        <v>13278</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -5700,7 +5703,7 @@
         <v>269</v>
       </c>
       <c r="E43" s="9">
-        <v>12646</v>
+        <v>13279</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -5732,7 +5735,7 @@
         <v>274</v>
       </c>
       <c r="E44" s="9">
-        <v>12647</v>
+        <v>13280</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -5764,7 +5767,7 @@
         <v>279</v>
       </c>
       <c r="E45" s="9">
-        <v>12648</v>
+        <v>13281</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -5796,7 +5799,7 @@
         <v>284</v>
       </c>
       <c r="E46" s="9">
-        <v>12649</v>
+        <v>13282</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
@@ -5828,7 +5831,7 @@
         <v>288</v>
       </c>
       <c r="E47" s="9">
-        <v>12650</v>
+        <v>13283</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -5848,10 +5851,10 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>170</v>
@@ -5860,7 +5863,7 @@
         <v>291</v>
       </c>
       <c r="E48" s="9">
-        <v>12651</v>
+        <v>13284</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -5892,7 +5895,7 @@
         <v>297</v>
       </c>
       <c r="E49" s="9">
-        <v>12652</v>
+        <v>13285</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -5915,7 +5918,7 @@
         <v>298</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>170</v>
@@ -5924,7 +5927,7 @@
         <v>301</v>
       </c>
       <c r="E50" s="9">
-        <v>12653</v>
+        <v>13286</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -5956,7 +5959,7 @@
         <v>306</v>
       </c>
       <c r="E51" s="9">
-        <v>12654</v>
+        <v>13287</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5988,7 +5991,7 @@
         <v>311</v>
       </c>
       <c r="E52" s="9">
-        <v>12655</v>
+        <v>13288</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -6020,7 +6023,7 @@
         <v>318</v>
       </c>
       <c r="E53" s="9">
-        <v>12656</v>
+        <v>13289</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -6052,7 +6055,7 @@
         <v>322</v>
       </c>
       <c r="E54" s="9">
-        <v>12657</v>
+        <v>13290</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -6082,7 +6085,7 @@
         <v>327</v>
       </c>
       <c r="E55" s="9">
-        <v>12658</v>
+        <v>13291</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -6112,7 +6115,7 @@
         <v>333</v>
       </c>
       <c r="E56" s="9">
-        <v>12659</v>
+        <v>13292</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -6144,7 +6147,7 @@
         <v>341</v>
       </c>
       <c r="E57" s="9">
-        <v>12660</v>
+        <v>13293</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -6176,7 +6179,7 @@
         <v>347</v>
       </c>
       <c r="E58" s="9">
-        <v>12661</v>
+        <v>13294</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -6208,7 +6211,7 @@
         <v>351</v>
       </c>
       <c r="E59" s="9">
-        <v>12662</v>
+        <v>13295</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -6240,7 +6243,7 @@
         <v>356</v>
       </c>
       <c r="E60" s="9">
-        <v>12663</v>
+        <v>13296</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -6260,10 +6263,10 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>170</v>
@@ -6272,7 +6275,7 @@
         <v>363</v>
       </c>
       <c r="E61" s="9">
-        <v>12664</v>
+        <v>13297</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -6302,7 +6305,7 @@
         <v>369</v>
       </c>
       <c r="E62" s="9">
-        <v>12665</v>
+        <v>13298</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -6334,7 +6337,7 @@
         <v>376</v>
       </c>
       <c r="E63" s="9">
-        <v>12666</v>
+        <v>13299</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -6354,10 +6357,10 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="4" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>170</v>
@@ -6366,7 +6369,7 @@
         <v>383</v>
       </c>
       <c r="E64" s="9">
-        <v>12667</v>
+        <v>13300</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -6398,7 +6401,7 @@
         <v>393</v>
       </c>
       <c r="E65" s="9">
-        <v>12668</v>
+        <v>13301</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -6430,7 +6433,7 @@
         <v>401</v>
       </c>
       <c r="E66" s="9">
-        <v>12669</v>
+        <v>13302</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -6462,7 +6465,7 @@
         <v>406</v>
       </c>
       <c r="E67" s="9">
-        <v>12670</v>
+        <v>13303</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -6494,7 +6497,7 @@
         <v>414</v>
       </c>
       <c r="E68" s="9">
-        <v>12671</v>
+        <v>13304</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -6526,7 +6529,7 @@
         <v>421</v>
       </c>
       <c r="E69" s="9">
-        <v>12672</v>
+        <v>13305</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -6558,7 +6561,7 @@
         <v>428</v>
       </c>
       <c r="E70" s="9">
-        <v>12673</v>
+        <v>13306</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -6590,7 +6593,7 @@
         <v>435</v>
       </c>
       <c r="E71" s="9">
-        <v>12674</v>
+        <v>13307</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -6622,7 +6625,7 @@
         <v>440</v>
       </c>
       <c r="E72" s="9">
-        <v>12675</v>
+        <v>13308</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -6654,7 +6657,7 @@
         <v>449</v>
       </c>
       <c r="E73" s="9">
-        <v>12676</v>
+        <v>13309</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -6686,7 +6689,7 @@
         <v>460</v>
       </c>
       <c r="E74" s="9">
-        <v>12677</v>
+        <v>13310</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -6718,7 +6721,7 @@
         <v>469</v>
       </c>
       <c r="E75" s="9">
-        <v>12678</v>
+        <v>13311</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -6750,7 +6753,7 @@
         <v>476</v>
       </c>
       <c r="E76" s="9">
-        <v>12679</v>
+        <v>13312</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -6782,7 +6785,7 @@
         <v>483</v>
       </c>
       <c r="E77" s="9">
-        <v>12680</v>
+        <v>13313</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -6814,7 +6817,7 @@
         <v>489</v>
       </c>
       <c r="E78" s="9">
-        <v>12681</v>
+        <v>13314</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -6846,7 +6849,7 @@
         <v>497</v>
       </c>
       <c r="E79" s="9">
-        <v>12682</v>
+        <v>13315</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -6878,7 +6881,7 @@
         <v>505</v>
       </c>
       <c r="E80" s="9">
-        <v>12683</v>
+        <v>13316</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -6910,7 +6913,7 @@
         <v>510</v>
       </c>
       <c r="E81" s="9">
-        <v>12684</v>
+        <v>13317</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -6942,7 +6945,7 @@
         <v>516</v>
       </c>
       <c r="E82" s="9">
-        <v>12685</v>
+        <v>13318</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -6974,7 +6977,7 @@
         <v>526</v>
       </c>
       <c r="E83" s="9">
-        <v>12686</v>
+        <v>13319</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -7006,7 +7009,7 @@
         <v>535</v>
       </c>
       <c r="E84" s="9">
-        <v>12687</v>
+        <v>13320</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -7038,7 +7041,7 @@
         <v>543</v>
       </c>
       <c r="E85" s="9">
-        <v>12688</v>
+        <v>13321</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7070,7 +7073,7 @@
         <v>549</v>
       </c>
       <c r="E86" s="9">
-        <v>12689</v>
+        <v>13322</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -7102,7 +7105,7 @@
         <v>559</v>
       </c>
       <c r="E87" s="9">
-        <v>12690</v>
+        <v>13323</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -7134,7 +7137,7 @@
         <v>569</v>
       </c>
       <c r="E88" s="9">
-        <v>12691</v>
+        <v>13324</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -7152,37 +7155,37 @@
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
     </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:20" s="1" customFormat="1">
+      <c r="A89" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>1218</v>
+      <c r="B89" s="12" t="s">
+        <v>1247</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E89" s="9">
-        <v>12692</v>
-      </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
+      <c r="E89" s="13">
+        <v>13325</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="6" t="s">
@@ -7198,7 +7201,7 @@
         <v>587</v>
       </c>
       <c r="E90" s="9">
-        <v>12693</v>
+        <v>13326</v>
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -7230,7 +7233,7 @@
         <v>593</v>
       </c>
       <c r="E91" s="9">
-        <v>12694</v>
+        <v>13327</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7260,7 +7263,7 @@
         <v>599</v>
       </c>
       <c r="E92" s="9">
-        <v>12695</v>
+        <v>13328</v>
       </c>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -7283,7 +7286,7 @@
         <v>602</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>170</v>
@@ -7292,7 +7295,7 @@
         <v>603</v>
       </c>
       <c r="E93" s="9">
-        <v>12696</v>
+        <v>13329</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -7324,7 +7327,7 @@
         <v>610</v>
       </c>
       <c r="E94" s="9">
-        <v>12697</v>
+        <v>13330</v>
       </c>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -7354,7 +7357,7 @@
         <v>613</v>
       </c>
       <c r="E95" s="9">
-        <v>12698</v>
+        <v>13331</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -7386,7 +7389,7 @@
         <v>618</v>
       </c>
       <c r="E96" s="9">
-        <v>12699</v>
+        <v>13332</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -7418,7 +7421,7 @@
         <v>624</v>
       </c>
       <c r="E97" s="9">
-        <v>12700</v>
+        <v>13333</v>
       </c>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -7438,19 +7441,19 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>627</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>628</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E98" s="9">
-        <v>12701</v>
+        <v>13334</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -7470,19 +7473,19 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E99" s="9">
-        <v>12702</v>
+        <v>13335</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -7502,19 +7505,19 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E100" s="9">
-        <v>12703</v>
+        <v>13336</v>
       </c>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>107</v>
@@ -7543,10 +7546,10 @@
         <v>170</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E101" s="9">
-        <v>12704</v>
+        <v>13337</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -7566,7 +7569,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>617</v>
@@ -7575,10 +7578,10 @@
         <v>170</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E102" s="9">
-        <v>12705</v>
+        <v>13338</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>107</v>
@@ -7607,10 +7610,10 @@
         <v>170</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E103" s="9">
-        <v>12706</v>
+        <v>13339</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -7630,19 +7633,19 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E104" s="9">
-        <v>12707</v>
+        <v>13340</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
@@ -7662,19 +7665,19 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E105" s="9">
-        <v>12708</v>
+        <v>13341</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -7694,19 +7697,19 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>683</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>684</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E106" s="9">
-        <v>12709</v>
+        <v>13342</v>
       </c>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -7726,19 +7729,19 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E107" s="9">
-        <v>12710</v>
+        <v>13343</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
@@ -7758,19 +7761,19 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E108" s="9">
-        <v>12711</v>
+        <v>13344</v>
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
@@ -7790,19 +7793,19 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>702</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>703</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E109" s="9">
-        <v>12712</v>
+        <v>13345</v>
       </c>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
@@ -7822,19 +7825,19 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E110" s="9">
-        <v>12713</v>
+        <v>13346</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
@@ -7854,7 +7857,7 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>488</v>
@@ -7863,10 +7866,10 @@
         <v>170</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E111" s="9">
-        <v>12714</v>
+        <v>13347</v>
       </c>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>488</v>
@@ -7895,10 +7898,10 @@
         <v>170</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E112" s="9">
-        <v>12715</v>
+        <v>13348</v>
       </c>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>488</v>
@@ -7927,10 +7930,10 @@
         <v>170</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E113" s="9">
-        <v>12716</v>
+        <v>13349</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -7950,7 +7953,7 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>488</v>
@@ -7959,10 +7962,10 @@
         <v>170</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E114" s="9">
-        <v>12717</v>
+        <v>13350</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -7982,7 +7985,7 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>488</v>
@@ -7991,10 +7994,10 @@
         <v>170</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E115" s="9">
-        <v>12718</v>
+        <v>13351</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>488</v>
@@ -8023,10 +8026,10 @@
         <v>170</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E116" s="9">
-        <v>12719</v>
+        <v>13352</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>488</v>
@@ -8055,10 +8058,10 @@
         <v>170</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E117" s="9">
-        <v>12720</v>
+        <v>13353</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
@@ -8078,19 +8081,19 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>744</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>745</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E118" s="9">
-        <v>12721</v>
+        <v>13354</v>
       </c>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
@@ -8110,19 +8113,19 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>748</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E119" s="9">
-        <v>12722</v>
+        <v>13355</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
@@ -8142,19 +8145,19 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E120" s="9">
-        <v>12723</v>
+        <v>13356</v>
       </c>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
@@ -8174,19 +8177,19 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E121" s="9">
-        <v>12724</v>
+        <v>13357</v>
       </c>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
@@ -8206,19 +8209,19 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>756</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E122" s="9">
-        <v>12725</v>
+        <v>13358</v>
       </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8238,19 +8241,19 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E123" s="9">
-        <v>12726</v>
+        <v>13359</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
@@ -8270,19 +8273,19 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>763</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E124" s="9">
-        <v>12727</v>
+        <v>13360</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
@@ -8302,19 +8305,19 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E125" s="9">
-        <v>12728</v>
+        <v>13361</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
@@ -8334,19 +8337,19 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E126" s="9">
-        <v>12729</v>
+        <v>13362</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
@@ -8366,19 +8369,19 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E127" s="9">
-        <v>12730</v>
+        <v>13363</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
@@ -8398,19 +8401,19 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>774</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>775</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E128" s="9">
-        <v>12731</v>
+        <v>13364</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
@@ -8430,19 +8433,19 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E129" s="9">
-        <v>12732</v>
+        <v>13365</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
@@ -8465,16 +8468,16 @@
         <v>141</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E130" s="9">
-        <v>12733</v>
+        <v>13366</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
@@ -8494,19 +8497,19 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>782</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>783</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E131" s="9">
-        <v>12734</v>
+        <v>13367</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -8526,19 +8529,19 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>786</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E132" s="9">
-        <v>12735</v>
+        <v>13368</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
@@ -8558,19 +8561,19 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>789</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E133" s="9">
-        <v>12736</v>
+        <v>13369</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
@@ -8590,19 +8593,19 @@
     </row>
     <row r="134" spans="1:20" ht="15.75" customHeight="1">
       <c r="A134" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E134" s="9">
-        <v>12737</v>
+        <v>13370</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
@@ -8622,19 +8625,19 @@
     </row>
     <row r="135" spans="1:20" ht="15.75" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E135" s="9">
-        <v>12738</v>
+        <v>13371</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
@@ -8654,17 +8657,17 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E136" s="9">
-        <v>12739</v>
+        <v>13372</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
@@ -8684,19 +8687,19 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E137" s="9">
-        <v>12740</v>
+        <v>13373</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
@@ -8716,194 +8719,194 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E138" s="9">
-        <v>12741</v>
+        <v>13374</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E139" s="9">
-        <v>12742</v>
+        <v>13375</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E140" s="9">
-        <v>12743</v>
+        <v>13376</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E141" s="9">
-        <v>12744</v>
+        <v>13377</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E142" s="9">
-        <v>12745</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E143" s="9">
-        <v>12746</v>
+        <v>13379</v>
       </c>
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E144" s="9">
-        <v>12747</v>
+        <v>13380</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E145" s="9">
-        <v>12748</v>
+        <v>13381</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E146" s="9">
-        <v>12749</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
-        <v>819</v>
+        <v>1245</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E147" s="9">
-        <v>12750</v>
+        <v>13383</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E148" s="9">
-        <v>12751</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>20</v>
@@ -8915,12 +8918,12 @@
         <v>565</v>
       </c>
       <c r="E149" s="9">
-        <v>12752</v>
+        <v>13385</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>20</v>
@@ -8932,12 +8935,12 @@
         <v>561</v>
       </c>
       <c r="E150" s="9">
-        <v>12753</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>20</v>
@@ -8946,15 +8949,15 @@
         <v>4</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E151" s="9">
-        <v>12754</v>
+        <v>13387</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>20</v>
@@ -8963,15 +8966,15 @@
         <v>4</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E152" s="9">
-        <v>12755</v>
+        <v>13388</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>20</v>
@@ -8980,15 +8983,15 @@
         <v>4</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E153" s="9">
-        <v>12756</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>20</v>
@@ -8997,15 +9000,15 @@
         <v>4</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E154" s="9">
-        <v>12757</v>
+        <v>13390</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>20</v>
@@ -9014,15 +9017,15 @@
         <v>4</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E155" s="9">
-        <v>12758</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>20</v>
@@ -9031,15 +9034,15 @@
         <v>4</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E156" s="9">
-        <v>12759</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>20</v>
@@ -9048,15 +9051,15 @@
         <v>4</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E157" s="9">
-        <v>12760</v>
+        <v>13393</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>20</v>
@@ -9065,15 +9068,15 @@
         <v>4</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E158" s="9">
-        <v>12761</v>
+        <v>13394</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>20</v>
@@ -9082,15 +9085,15 @@
         <v>4</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E159" s="9">
-        <v>12762</v>
+        <v>13395</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>20</v>
@@ -9099,15 +9102,15 @@
         <v>4</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E160" s="9">
-        <v>12763</v>
+        <v>13396</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>20</v>
@@ -9116,168 +9119,168 @@
         <v>4</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E161" s="9">
-        <v>12764</v>
+        <v>13397</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E162" s="9">
-        <v>12765</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E163" s="9">
-        <v>12766</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E164" s="9">
-        <v>12767</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E165" s="9">
-        <v>12768</v>
+        <v>13401</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="6" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E166" s="9">
-        <v>12769</v>
+        <v>13402</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E167" s="9">
-        <v>12770</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E168" s="9">
-        <v>12771</v>
+        <v>13404</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E169" s="9">
-        <v>12772</v>
+        <v>13405</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E170" s="9">
-        <v>12773</v>
+        <v>13406</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>296</v>
@@ -9286,66 +9289,66 @@
         <v>170</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E171" s="9">
-        <v>12774</v>
+        <v>13407</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E172" s="9">
-        <v>12775</v>
+        <v>13408</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E173" s="9">
-        <v>12776</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E174" s="9">
-        <v>12777</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>346</v>
@@ -9354,15 +9357,15 @@
         <v>170</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E175" s="9">
-        <v>12778</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>346</v>
@@ -9371,176 +9374,176 @@
         <v>170</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E176" s="9">
-        <v>12779</v>
+        <v>13412</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E177" s="9">
-        <v>12780</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E178" s="9">
-        <v>12781</v>
+        <v>13414</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E179" s="9">
-        <v>12782</v>
+        <v>13415</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>882</v>
-      </c>
       <c r="E180" s="9">
-        <v>12783</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E181" s="9">
-        <v>12784</v>
+        <v>13417</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E182" s="9">
-        <v>12785</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E183" s="9">
-        <v>12786</v>
+        <v>13419</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E184" s="9">
-        <v>12787</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E185" s="9">
-        <v>12788</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E186" s="9">
-        <v>12789</v>
+        <v>13422</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -9548,208 +9551,208 @@
         <v>462</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E187" s="9">
-        <v>12790</v>
+        <v>13423</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E188" s="9">
-        <v>12791</v>
+        <v>13424</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E189" s="9">
-        <v>12792</v>
+        <v>13425</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E190" s="9">
-        <v>12793</v>
+        <v>13426</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E191" s="9">
-        <v>12794</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E192" s="9">
-        <v>12795</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E193" s="9">
-        <v>12796</v>
+        <v>13429</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E194" s="9">
-        <v>12797</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E195" s="9">
-        <v>12798</v>
+        <v>13431</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E196" s="9">
-        <v>12799</v>
+        <v>13432</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E197" s="9">
-        <v>12800</v>
+        <v>13433</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E198" s="9">
-        <v>12801</v>
+        <v>13434</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>20</v>
@@ -9758,15 +9761,15 @@
         <v>4</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E199" s="9">
-        <v>12802</v>
+        <v>13435</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>20</v>
@@ -9775,15 +9778,15 @@
         <v>4</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E200" s="9">
-        <v>12803</v>
+        <v>13436</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>20</v>
@@ -9792,15 +9795,15 @@
         <v>4</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E201" s="9">
-        <v>12804</v>
+        <v>13437</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>20</v>
@@ -9809,15 +9812,15 @@
         <v>4</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E202" s="9">
-        <v>12805</v>
+        <v>13438</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>20</v>
@@ -9826,15 +9829,15 @@
         <v>4</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E203" s="9">
-        <v>12806</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>20</v>
@@ -9843,15 +9846,15 @@
         <v>4</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E204" s="9">
-        <v>12807</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>20</v>
@@ -9860,15 +9863,15 @@
         <v>4</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E205" s="9">
-        <v>12808</v>
+        <v>13441</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>20</v>
@@ -9877,15 +9880,15 @@
         <v>4</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E206" s="9">
-        <v>12809</v>
+        <v>13442</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>20</v>
@@ -9894,15 +9897,15 @@
         <v>4</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E207" s="9">
-        <v>12810</v>
+        <v>13443</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>20</v>
@@ -9911,15 +9914,15 @@
         <v>4</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E208" s="9">
-        <v>12811</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>20</v>
@@ -9928,10 +9931,10 @@
         <v>4</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E209" s="9">
-        <v>12812</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -9948,7 +9951,7 @@
         <v>10</v>
       </c>
       <c r="E210" s="9">
-        <v>12813</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -9965,7 +9968,7 @@
         <v>14</v>
       </c>
       <c r="E211" s="9">
-        <v>12814</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -9982,7 +9985,7 @@
         <v>19</v>
       </c>
       <c r="E212" s="9">
-        <v>12815</v>
+        <v>13448</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -9999,7 +10002,7 @@
         <v>24</v>
       </c>
       <c r="E213" s="9">
-        <v>12816</v>
+        <v>13449</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -10016,7 +10019,7 @@
         <v>27</v>
       </c>
       <c r="E214" s="9">
-        <v>12817</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -10033,7 +10036,7 @@
         <v>30</v>
       </c>
       <c r="E215" s="9">
-        <v>12818</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -10050,7 +10053,7 @@
         <v>35</v>
       </c>
       <c r="E216" s="9">
-        <v>12819</v>
+        <v>13452</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -10067,7 +10070,7 @@
         <v>39</v>
       </c>
       <c r="E217" s="9">
-        <v>12820</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -10084,7 +10087,7 @@
         <v>45</v>
       </c>
       <c r="E218" s="9">
-        <v>12821</v>
+        <v>13454</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -10101,7 +10104,7 @@
         <v>49</v>
       </c>
       <c r="E219" s="9">
-        <v>12822</v>
+        <v>13455</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -10118,7 +10121,7 @@
         <v>54</v>
       </c>
       <c r="E220" s="9">
-        <v>12823</v>
+        <v>13456</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -10135,7 +10138,7 @@
         <v>58</v>
       </c>
       <c r="E221" s="9">
-        <v>12824</v>
+        <v>13457</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -10152,7 +10155,7 @@
         <v>61</v>
       </c>
       <c r="E222" s="9">
-        <v>12825</v>
+        <v>13458</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -10169,7 +10172,7 @@
         <v>66</v>
       </c>
       <c r="E223" s="9">
-        <v>12826</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -10186,7 +10189,7 @@
         <v>69</v>
       </c>
       <c r="E224" s="9">
-        <v>12827</v>
+        <v>13460</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -10203,7 +10206,7 @@
         <v>73</v>
       </c>
       <c r="E225" s="9">
-        <v>12828</v>
+        <v>13461</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -10220,7 +10223,7 @@
         <v>77</v>
       </c>
       <c r="E226" s="9">
-        <v>12829</v>
+        <v>13462</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -10237,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="E227" s="9">
-        <v>12830</v>
+        <v>13463</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="14">
@@ -10252,7 +10255,7 @@
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9">
-        <v>12831</v>
+        <v>13464</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="14">
@@ -10269,7 +10272,7 @@
         <v>93</v>
       </c>
       <c r="E229" s="9">
-        <v>12832</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -10286,7 +10289,7 @@
         <v>100</v>
       </c>
       <c r="E230" s="9">
-        <v>12833</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -10303,7 +10306,7 @@
         <v>106</v>
       </c>
       <c r="E231" s="9">
-        <v>12834</v>
+        <v>13467</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -10320,7 +10323,7 @@
         <v>112</v>
       </c>
       <c r="E232" s="9">
-        <v>12835</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -10337,7 +10340,7 @@
         <v>118</v>
       </c>
       <c r="E233" s="9">
-        <v>12836</v>
+        <v>13469</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -10354,7 +10357,7 @@
         <v>126</v>
       </c>
       <c r="E234" s="9">
-        <v>12837</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -10371,7 +10374,7 @@
         <v>132</v>
       </c>
       <c r="E235" s="9">
-        <v>12838</v>
+        <v>13471</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -10388,7 +10391,7 @@
         <v>140</v>
       </c>
       <c r="E236" s="9">
-        <v>12839</v>
+        <v>13472</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -10405,7 +10408,7 @@
         <v>144</v>
       </c>
       <c r="E237" s="9">
-        <v>12840</v>
+        <v>13473</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -10422,7 +10425,7 @@
         <v>150</v>
       </c>
       <c r="E238" s="9">
-        <v>12841</v>
+        <v>13474</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -10439,7 +10442,7 @@
         <v>157</v>
       </c>
       <c r="E239" s="9">
-        <v>12842</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -10456,7 +10459,7 @@
         <v>162</v>
       </c>
       <c r="E240" s="9">
-        <v>12843</v>
+        <v>13476</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -10473,7 +10476,7 @@
         <v>167</v>
       </c>
       <c r="E241" s="9">
-        <v>12844</v>
+        <v>13477</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -10490,7 +10493,7 @@
         <v>173</v>
       </c>
       <c r="E242" s="9">
-        <v>12845</v>
+        <v>13478</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -10507,7 +10510,7 @@
         <v>178</v>
       </c>
       <c r="E243" s="9">
-        <v>12846</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -10524,7 +10527,7 @@
         <v>182</v>
       </c>
       <c r="E244" s="9">
-        <v>12847</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -10541,7 +10544,7 @@
         <v>186</v>
       </c>
       <c r="E245" s="9">
-        <v>12848</v>
+        <v>13481</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -10558,7 +10561,7 @@
         <v>191</v>
       </c>
       <c r="E246" s="9">
-        <v>12849</v>
+        <v>13482</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -10575,7 +10578,7 @@
         <v>198</v>
       </c>
       <c r="E247" s="9">
-        <v>12850</v>
+        <v>13483</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -10592,7 +10595,7 @@
         <v>203</v>
       </c>
       <c r="E248" s="9">
-        <v>12851</v>
+        <v>13484</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -10609,7 +10612,7 @@
         <v>212</v>
       </c>
       <c r="E249" s="9">
-        <v>12852</v>
+        <v>13485</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -10626,7 +10629,7 @@
         <v>218</v>
       </c>
       <c r="E250" s="9">
-        <v>12853</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -10643,7 +10646,7 @@
         <v>223</v>
       </c>
       <c r="E251" s="9">
-        <v>12854</v>
+        <v>13487</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -10660,7 +10663,7 @@
         <v>227</v>
       </c>
       <c r="E252" s="9">
-        <v>12855</v>
+        <v>13488</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -10677,7 +10680,7 @@
         <v>231</v>
       </c>
       <c r="E253" s="9">
-        <v>12856</v>
+        <v>13489</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -10694,7 +10697,7 @@
         <v>235</v>
       </c>
       <c r="E254" s="9">
-        <v>12857</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -10711,7 +10714,7 @@
         <v>239</v>
       </c>
       <c r="E255" s="9">
-        <v>12858</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -10728,7 +10731,7 @@
         <v>242</v>
       </c>
       <c r="E256" s="9">
-        <v>12859</v>
+        <v>13492</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -10745,7 +10748,7 @@
         <v>246</v>
       </c>
       <c r="E257" s="9">
-        <v>12860</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10762,7 +10765,7 @@
         <v>251</v>
       </c>
       <c r="E258" s="9">
-        <v>12861</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -10779,7 +10782,7 @@
         <v>255</v>
       </c>
       <c r="E259" s="9">
-        <v>12862</v>
+        <v>13495</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -10796,7 +10799,7 @@
         <v>259</v>
       </c>
       <c r="E260" s="9">
-        <v>12863</v>
+        <v>13496</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10813,7 +10816,7 @@
         <v>264</v>
       </c>
       <c r="E261" s="9">
-        <v>12864</v>
+        <v>13497</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -10830,7 +10833,7 @@
         <v>267</v>
       </c>
       <c r="E262" s="9">
-        <v>12865</v>
+        <v>13498</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10847,7 +10850,7 @@
         <v>272</v>
       </c>
       <c r="E263" s="9">
-        <v>12866</v>
+        <v>13499</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -10864,7 +10867,7 @@
         <v>276</v>
       </c>
       <c r="E264" s="9">
-        <v>12867</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10881,7 +10884,7 @@
         <v>281</v>
       </c>
       <c r="E265" s="9">
-        <v>12868</v>
+        <v>13501</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -10896,7 +10899,7 @@
       </c>
       <c r="D266" s="9"/>
       <c r="E266" s="9">
-        <v>12869</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -10913,7 +10916,7 @@
         <v>289</v>
       </c>
       <c r="E267" s="9">
-        <v>12870</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10930,7 +10933,7 @@
         <v>300</v>
       </c>
       <c r="E268" s="9">
-        <v>12871</v>
+        <v>13504</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -10947,7 +10950,7 @@
         <v>307</v>
       </c>
       <c r="E269" s="9">
-        <v>12872</v>
+        <v>13505</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10964,7 +10967,7 @@
         <v>316</v>
       </c>
       <c r="E270" s="9">
-        <v>12873</v>
+        <v>13506</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -10981,7 +10984,7 @@
         <v>323</v>
       </c>
       <c r="E271" s="9">
-        <v>12874</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -10996,7 +10999,7 @@
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9">
-        <v>12875</v>
+        <v>13508</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -11013,7 +11016,7 @@
         <v>331</v>
       </c>
       <c r="E273" s="9">
-        <v>12876</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -11030,7 +11033,7 @@
         <v>335</v>
       </c>
       <c r="E274" s="9">
-        <v>12877</v>
+        <v>13510</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -11047,7 +11050,7 @@
         <v>340</v>
       </c>
       <c r="E275" s="9">
-        <v>12878</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -11064,7 +11067,7 @@
         <v>345</v>
       </c>
       <c r="E276" s="9">
-        <v>12879</v>
+        <v>13512</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -11081,7 +11084,7 @@
         <v>355</v>
       </c>
       <c r="E277" s="9">
-        <v>12880</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -11098,7 +11101,7 @@
         <v>359</v>
       </c>
       <c r="E278" s="9">
-        <v>12881</v>
+        <v>13514</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -11115,7 +11118,7 @@
         <v>362</v>
       </c>
       <c r="E279" s="9">
-        <v>12882</v>
+        <v>13515</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -11132,7 +11135,7 @@
         <v>368</v>
       </c>
       <c r="E280" s="9">
-        <v>12883</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -11149,7 +11152,7 @@
         <v>372</v>
       </c>
       <c r="E281" s="9">
-        <v>12884</v>
+        <v>13517</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -11166,7 +11169,7 @@
         <v>377</v>
       </c>
       <c r="E282" s="9">
-        <v>12885</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -11181,7 +11184,7 @@
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9">
-        <v>12886</v>
+        <v>13519</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -11198,7 +11201,7 @@
         <v>384</v>
       </c>
       <c r="E284" s="9">
-        <v>12887</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -11215,7 +11218,7 @@
         <v>388</v>
       </c>
       <c r="E285" s="9">
-        <v>12888</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -11232,7 +11235,7 @@
         <v>394</v>
       </c>
       <c r="E286" s="9">
-        <v>12889</v>
+        <v>13522</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -11249,7 +11252,7 @@
         <v>407</v>
       </c>
       <c r="E287" s="9">
-        <v>12890</v>
+        <v>13523</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -11266,7 +11269,7 @@
         <v>415</v>
       </c>
       <c r="E288" s="9">
-        <v>12891</v>
+        <v>13524</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -11283,7 +11286,7 @@
         <v>423</v>
       </c>
       <c r="E289" s="9">
-        <v>12892</v>
+        <v>13525</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -11300,7 +11303,7 @@
         <v>430</v>
       </c>
       <c r="E290" s="9">
-        <v>12893</v>
+        <v>13526</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -11315,7 +11318,7 @@
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9">
-        <v>12894</v>
+        <v>13527</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -11332,7 +11335,7 @@
         <v>442</v>
       </c>
       <c r="E292" s="9">
-        <v>12895</v>
+        <v>13528</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -11349,7 +11352,7 @@
         <v>448</v>
       </c>
       <c r="E293" s="9">
-        <v>12896</v>
+        <v>13529</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -11366,7 +11369,7 @@
         <v>453</v>
       </c>
       <c r="E294" s="9">
-        <v>12897</v>
+        <v>13530</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -11383,7 +11386,7 @@
         <v>458</v>
       </c>
       <c r="E295" s="9">
-        <v>12898</v>
+        <v>13531</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -11400,7 +11403,7 @@
         <v>463</v>
       </c>
       <c r="E296" s="9">
-        <v>12899</v>
+        <v>13532</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -11417,7 +11420,7 @@
         <v>471</v>
       </c>
       <c r="E297" s="9">
-        <v>12900</v>
+        <v>13533</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -11434,7 +11437,7 @@
         <v>477</v>
       </c>
       <c r="E298" s="9">
-        <v>12901</v>
+        <v>13534</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -11451,7 +11454,7 @@
         <v>490</v>
       </c>
       <c r="E299" s="9">
-        <v>12902</v>
+        <v>13535</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -11468,7 +11471,7 @@
         <v>501</v>
       </c>
       <c r="E300" s="9">
-        <v>12903</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -11485,7 +11488,7 @@
         <v>506</v>
       </c>
       <c r="E301" s="9">
-        <v>12904</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -11502,7 +11505,7 @@
         <v>511</v>
       </c>
       <c r="E302" s="9">
-        <v>12905</v>
+        <v>13538</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -11519,7 +11522,7 @@
         <v>518</v>
       </c>
       <c r="E303" s="9">
-        <v>12906</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -11536,7 +11539,7 @@
         <v>523</v>
       </c>
       <c r="E304" s="9">
-        <v>12907</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -11553,7 +11556,7 @@
         <v>528</v>
       </c>
       <c r="E305" s="9">
-        <v>12908</v>
+        <v>13541</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -11570,7 +11573,7 @@
         <v>534</v>
       </c>
       <c r="E306" s="9">
-        <v>12909</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -11587,7 +11590,7 @@
         <v>539</v>
       </c>
       <c r="E307" s="9">
-        <v>12910</v>
+        <v>13543</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -11604,7 +11607,7 @@
         <v>544</v>
       </c>
       <c r="E308" s="9">
-        <v>12911</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -11621,7 +11624,7 @@
         <v>551</v>
       </c>
       <c r="E309" s="9">
-        <v>12912</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -11638,7 +11641,7 @@
         <v>556</v>
       </c>
       <c r="E310" s="9">
-        <v>12913</v>
+        <v>13546</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -11655,7 +11658,7 @@
         <v>560</v>
       </c>
       <c r="E311" s="9">
-        <v>12914</v>
+        <v>13547</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -11672,7 +11675,7 @@
         <v>564</v>
       </c>
       <c r="E312" s="9">
-        <v>12915</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -11689,7 +11692,7 @@
         <v>571</v>
       </c>
       <c r="E313" s="9">
-        <v>12916</v>
+        <v>13549</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -11706,7 +11709,7 @@
         <v>575</v>
       </c>
       <c r="E314" s="9">
-        <v>12917</v>
+        <v>13550</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -11723,7 +11726,7 @@
         <v>580</v>
       </c>
       <c r="E315" s="9">
-        <v>12918</v>
+        <v>13551</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -11738,7 +11741,7 @@
       </c>
       <c r="D316" s="9"/>
       <c r="E316" s="9">
-        <v>12919</v>
+        <v>13552</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -11755,7 +11758,7 @@
         <v>591</v>
       </c>
       <c r="E317" s="9">
-        <v>12920</v>
+        <v>13553</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -11770,7 +11773,7 @@
       </c>
       <c r="D318" s="9"/>
       <c r="E318" s="9">
-        <v>12921</v>
+        <v>13554</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -11785,7 +11788,7 @@
       </c>
       <c r="D319" s="9"/>
       <c r="E319" s="9">
-        <v>12922</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -11799,10 +11802,10 @@
         <v>4</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="E320" s="9">
-        <v>12923</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="16">
@@ -11816,10 +11819,10 @@
         <v>4</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E321" s="9">
-        <v>12924</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="16">
@@ -11833,10 +11836,10 @@
         <v>4</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E322" s="9">
-        <v>12925</v>
+        <v>13558</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="16">
@@ -11850,10 +11853,10 @@
         <v>4</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E323" s="9">
-        <v>12926</v>
+        <v>13559</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="16">
@@ -11867,15 +11870,15 @@
         <v>4</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E324" s="9">
-        <v>12927</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="16">
       <c r="A325" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>606</v>
@@ -11884,15 +11887,15 @@
         <v>4</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E325" s="9">
-        <v>12928</v>
+        <v>13561</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="16">
       <c r="A326" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>606</v>
@@ -11901,15 +11904,15 @@
         <v>4</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E326" s="9">
-        <v>12929</v>
+        <v>13562</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="16">
       <c r="A327" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>606</v>
@@ -11918,15 +11921,15 @@
         <v>4</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E327" s="9">
-        <v>12930</v>
+        <v>13563</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>606</v>
@@ -11935,15 +11938,15 @@
         <v>4</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E328" s="9">
-        <v>12931</v>
+        <v>13564</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>606</v>
@@ -11952,15 +11955,15 @@
         <v>4</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E329" s="9">
-        <v>12932</v>
+        <v>13565</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>606</v>
@@ -11969,15 +11972,15 @@
         <v>4</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E330" s="9">
-        <v>12933</v>
+        <v>13566</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>606</v>
@@ -11986,15 +11989,15 @@
         <v>4</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E331" s="9">
-        <v>12934</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>606</v>
@@ -12003,15 +12006,15 @@
         <v>4</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E332" s="9">
-        <v>12935</v>
+        <v>13568</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>606</v>
@@ -12020,15 +12023,15 @@
         <v>4</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E333" s="9">
-        <v>12936</v>
+        <v>13569</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>606</v>
@@ -12038,12 +12041,12 @@
       </c>
       <c r="D334" s="4"/>
       <c r="E334" s="9">
-        <v>12937</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>606</v>
@@ -12052,15 +12055,15 @@
         <v>4</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E335" s="9">
-        <v>12938</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>606</v>
@@ -12069,10 +12072,10 @@
         <v>4</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E336" s="9">
-        <v>12939</v>
+        <v>13572</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -12089,7 +12092,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="9">
-        <v>12940</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -12106,7 +12109,7 @@
         <v>11</v>
       </c>
       <c r="E338" s="9">
-        <v>12941</v>
+        <v>13574</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -12123,7 +12126,7 @@
         <v>15</v>
       </c>
       <c r="E339" s="9">
-        <v>12942</v>
+        <v>13575</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -12140,7 +12143,7 @@
         <v>23</v>
       </c>
       <c r="E340" s="9">
-        <v>12943</v>
+        <v>13576</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -12157,7 +12160,7 @@
         <v>28</v>
       </c>
       <c r="E341" s="9">
-        <v>12944</v>
+        <v>13577</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -12174,7 +12177,7 @@
         <v>34</v>
       </c>
       <c r="E342" s="9">
-        <v>12945</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -12191,7 +12194,7 @@
         <v>40</v>
       </c>
       <c r="E343" s="9">
-        <v>12946</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -12208,7 +12211,7 @@
         <v>44</v>
       </c>
       <c r="E344" s="9">
-        <v>12947</v>
+        <v>13580</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -12225,7 +12228,7 @@
         <v>51</v>
       </c>
       <c r="E345" s="9">
-        <v>12948</v>
+        <v>13581</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -12242,7 +12245,7 @@
         <v>56</v>
       </c>
       <c r="E346" s="9">
-        <v>12949</v>
+        <v>13582</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -12259,7 +12262,7 @@
         <v>62</v>
       </c>
       <c r="E347" s="9">
-        <v>12950</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -12276,7 +12279,7 @@
         <v>68</v>
       </c>
       <c r="E348" s="9">
-        <v>12951</v>
+        <v>13584</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -12293,7 +12296,7 @@
         <v>74</v>
       </c>
       <c r="E349" s="9">
-        <v>12952</v>
+        <v>13585</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -12310,7 +12313,7 @@
         <v>79</v>
       </c>
       <c r="E350" s="9">
-        <v>12953</v>
+        <v>13586</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -12325,7 +12328,7 @@
       </c>
       <c r="D351" s="9"/>
       <c r="E351" s="9">
-        <v>12954</v>
+        <v>13587</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -12342,7 +12345,7 @@
         <v>90</v>
       </c>
       <c r="E352" s="9">
-        <v>12955</v>
+        <v>13588</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -12357,7 +12360,7 @@
       </c>
       <c r="D353" s="9"/>
       <c r="E353" s="9">
-        <v>12956</v>
+        <v>13589</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -12374,7 +12377,7 @@
         <v>97</v>
       </c>
       <c r="E354" s="9">
-        <v>12957</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -12389,7 +12392,7 @@
       </c>
       <c r="D355" s="9"/>
       <c r="E355" s="9">
-        <v>12958</v>
+        <v>13591</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -12406,7 +12409,7 @@
         <v>105</v>
       </c>
       <c r="E356" s="9">
-        <v>12959</v>
+        <v>13592</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -12423,7 +12426,7 @@
         <v>111</v>
       </c>
       <c r="E357" s="9">
-        <v>12960</v>
+        <v>13593</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -12440,7 +12443,7 @@
         <v>117</v>
       </c>
       <c r="E358" s="9">
-        <v>12961</v>
+        <v>13594</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -12457,7 +12460,7 @@
         <v>123</v>
       </c>
       <c r="E359" s="9">
-        <v>12962</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -12474,7 +12477,7 @@
         <v>127</v>
       </c>
       <c r="E360" s="9">
-        <v>12963</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -12491,7 +12494,7 @@
         <v>133</v>
       </c>
       <c r="E361" s="9">
-        <v>12964</v>
+        <v>13597</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -12508,7 +12511,7 @@
         <v>138</v>
       </c>
       <c r="E362" s="9">
-        <v>12965</v>
+        <v>13598</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -12525,7 +12528,7 @@
         <v>97</v>
       </c>
       <c r="E363" s="9">
-        <v>12966</v>
+        <v>13599</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -12542,7 +12545,7 @@
         <v>90</v>
       </c>
       <c r="E364" s="9">
-        <v>12967</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -12559,7 +12562,7 @@
         <v>148</v>
       </c>
       <c r="E365" s="9">
-        <v>12968</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -12576,7 +12579,7 @@
         <v>154</v>
       </c>
       <c r="E366" s="9">
-        <v>12969</v>
+        <v>13602</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -12593,7 +12596,7 @@
         <v>159</v>
       </c>
       <c r="E367" s="9">
-        <v>12970</v>
+        <v>13603</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -12610,7 +12613,7 @@
         <v>164</v>
       </c>
       <c r="E368" s="9">
-        <v>12971</v>
+        <v>13604</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -12627,7 +12630,7 @@
         <v>169</v>
       </c>
       <c r="E369" s="9">
-        <v>12972</v>
+        <v>13605</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -12644,7 +12647,7 @@
         <v>174</v>
       </c>
       <c r="E370" s="9">
-        <v>12973</v>
+        <v>13606</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -12661,7 +12664,7 @@
         <v>180</v>
       </c>
       <c r="E371" s="9">
-        <v>12974</v>
+        <v>13607</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -12678,7 +12681,7 @@
         <v>187</v>
       </c>
       <c r="E372" s="9">
-        <v>12975</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -12695,7 +12698,7 @@
         <v>193</v>
       </c>
       <c r="E373" s="9">
-        <v>12976</v>
+        <v>13609</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -12712,7 +12715,7 @@
         <v>200</v>
       </c>
       <c r="E374" s="9">
-        <v>12977</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -12729,7 +12732,7 @@
         <v>206</v>
       </c>
       <c r="E375" s="9">
-        <v>12978</v>
+        <v>13611</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -12746,7 +12749,7 @@
         <v>214</v>
       </c>
       <c r="E376" s="9">
-        <v>12979</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -12763,7 +12766,7 @@
         <v>221</v>
       </c>
       <c r="E377" s="9">
-        <v>12980</v>
+        <v>13613</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -12780,7 +12783,7 @@
         <v>228</v>
       </c>
       <c r="E378" s="9">
-        <v>12981</v>
+        <v>13614</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -12797,7 +12800,7 @@
         <v>234</v>
       </c>
       <c r="E379" s="9">
-        <v>12982</v>
+        <v>13615</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -12814,7 +12817,7 @@
         <v>241</v>
       </c>
       <c r="E380" s="9">
-        <v>12983</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -12831,7 +12834,7 @@
         <v>247</v>
       </c>
       <c r="E381" s="9">
-        <v>12984</v>
+        <v>13617</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -12848,7 +12851,7 @@
         <v>253</v>
       </c>
       <c r="E382" s="9">
-        <v>12985</v>
+        <v>13618</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -12865,7 +12868,7 @@
         <v>260</v>
       </c>
       <c r="E383" s="9">
-        <v>12986</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -12882,7 +12885,7 @@
         <v>265</v>
       </c>
       <c r="E384" s="9">
-        <v>12987</v>
+        <v>13620</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -12899,7 +12902,7 @@
         <v>271</v>
       </c>
       <c r="E385" s="9">
-        <v>12988</v>
+        <v>13621</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -12916,7 +12919,7 @@
         <v>277</v>
       </c>
       <c r="E386" s="9">
-        <v>12989</v>
+        <v>13622</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -12933,7 +12936,7 @@
         <v>282</v>
       </c>
       <c r="E387" s="9">
-        <v>12990</v>
+        <v>13623</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -12948,7 +12951,7 @@
       </c>
       <c r="D388" s="9"/>
       <c r="E388" s="9">
-        <v>12991</v>
+        <v>13624</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -12963,7 +12966,7 @@
       </c>
       <c r="D389" s="9"/>
       <c r="E389" s="9">
-        <v>12992</v>
+        <v>13625</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -12980,7 +12983,7 @@
         <v>302</v>
       </c>
       <c r="E390" s="9">
-        <v>12993</v>
+        <v>13626</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -12997,7 +13000,7 @@
         <v>309</v>
       </c>
       <c r="E391" s="9">
-        <v>12994</v>
+        <v>13627</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -13014,7 +13017,7 @@
         <v>317</v>
       </c>
       <c r="E392" s="9">
-        <v>12995</v>
+        <v>13628</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -13031,7 +13034,7 @@
         <v>324</v>
       </c>
       <c r="E393" s="9">
-        <v>12996</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -13048,7 +13051,7 @@
         <v>332</v>
       </c>
       <c r="E394" s="9">
-        <v>12997</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -13065,7 +13068,7 @@
         <v>339</v>
       </c>
       <c r="E395" s="9">
-        <v>12998</v>
+        <v>13631</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -13082,7 +13085,7 @@
         <v>348</v>
       </c>
       <c r="E396" s="9">
-        <v>12999</v>
+        <v>13632</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -13099,7 +13102,7 @@
         <v>353</v>
       </c>
       <c r="E397" s="9">
-        <v>13000</v>
+        <v>13633</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -13116,7 +13119,7 @@
         <v>361</v>
       </c>
       <c r="E398" s="9">
-        <v>13001</v>
+        <v>13634</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -13133,7 +13136,7 @@
         <v>366</v>
       </c>
       <c r="E399" s="9">
-        <v>13002</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -13150,7 +13153,7 @@
         <v>375</v>
       </c>
       <c r="E400" s="9">
-        <v>13003</v>
+        <v>13636</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -13167,7 +13170,7 @@
         <v>380</v>
       </c>
       <c r="E401" s="9">
-        <v>13004</v>
+        <v>13637</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -13184,7 +13187,7 @@
         <v>385</v>
       </c>
       <c r="E402" s="9">
-        <v>13005</v>
+        <v>13638</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -13201,7 +13204,7 @@
         <v>392</v>
       </c>
       <c r="E403" s="9">
-        <v>13006</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -13218,7 +13221,7 @@
         <v>397</v>
       </c>
       <c r="E404" s="9">
-        <v>13007</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -13235,7 +13238,7 @@
         <v>403</v>
       </c>
       <c r="E405" s="9">
-        <v>13008</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -13252,7 +13255,7 @@
         <v>409</v>
       </c>
       <c r="E406" s="9">
-        <v>13009</v>
+        <v>13642</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -13269,7 +13272,7 @@
         <v>416</v>
       </c>
       <c r="E407" s="9">
-        <v>13010</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -13286,7 +13289,7 @@
         <v>422</v>
       </c>
       <c r="E408" s="9">
-        <v>13011</v>
+        <v>13644</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -13303,7 +13306,7 @@
         <v>429</v>
       </c>
       <c r="E409" s="9">
-        <v>13012</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -13318,7 +13321,7 @@
       </c>
       <c r="D410" s="9"/>
       <c r="E410" s="9">
-        <v>13013</v>
+        <v>13646</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -13335,7 +13338,7 @@
         <v>441</v>
       </c>
       <c r="E411" s="9">
-        <v>13014</v>
+        <v>13647</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -13352,7 +13355,7 @@
         <v>445</v>
       </c>
       <c r="E412" s="9">
-        <v>13015</v>
+        <v>13648</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -13369,7 +13372,7 @@
         <v>452</v>
       </c>
       <c r="E413" s="9">
-        <v>13016</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -13386,7 +13389,7 @@
         <v>459</v>
       </c>
       <c r="E414" s="9">
-        <v>13017</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -13403,7 +13406,7 @@
         <v>464</v>
       </c>
       <c r="E415" s="9">
-        <v>13018</v>
+        <v>13651</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -13420,7 +13423,7 @@
         <v>474</v>
       </c>
       <c r="E416" s="9">
-        <v>13019</v>
+        <v>13652</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -13437,7 +13440,7 @@
         <v>480</v>
       </c>
       <c r="E417" s="9">
-        <v>13020</v>
+        <v>13653</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -13454,7 +13457,7 @@
         <v>485</v>
       </c>
       <c r="E418" s="9">
-        <v>13021</v>
+        <v>13654</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -13471,7 +13474,7 @@
         <v>491</v>
       </c>
       <c r="E419" s="9">
-        <v>13022</v>
+        <v>13655</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -13488,7 +13491,7 @@
         <v>496</v>
       </c>
       <c r="E420" s="9">
-        <v>13023</v>
+        <v>13656</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -13505,7 +13508,7 @@
         <v>500</v>
       </c>
       <c r="E421" s="9">
-        <v>13024</v>
+        <v>13657</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -13522,7 +13525,7 @@
         <v>508</v>
       </c>
       <c r="E422" s="9">
-        <v>13025</v>
+        <v>13658</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -13539,7 +13542,7 @@
         <v>515</v>
       </c>
       <c r="E423" s="9">
-        <v>13026</v>
+        <v>13659</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -13556,7 +13559,7 @@
         <v>519</v>
       </c>
       <c r="E424" s="9">
-        <v>13027</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -13573,7 +13576,7 @@
         <v>524</v>
       </c>
       <c r="E425" s="9">
-        <v>13028</v>
+        <v>13661</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -13590,7 +13593,7 @@
         <v>529</v>
       </c>
       <c r="E426" s="9">
-        <v>13029</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -13607,7 +13610,7 @@
         <v>533</v>
       </c>
       <c r="E427" s="9">
-        <v>13030</v>
+        <v>13663</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -13624,7 +13627,7 @@
         <v>538</v>
       </c>
       <c r="E428" s="9">
-        <v>13031</v>
+        <v>13664</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -13638,7 +13641,7 @@
         <v>4</v>
       </c>
       <c r="E429" s="9">
-        <v>13032</v>
+        <v>13665</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -13655,7 +13658,7 @@
         <v>548</v>
       </c>
       <c r="E430" s="9">
-        <v>13033</v>
+        <v>13666</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -13672,7 +13675,7 @@
         <v>552</v>
       </c>
       <c r="E431" s="9">
-        <v>13034</v>
+        <v>13667</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -13686,7 +13689,7 @@
         <v>4</v>
       </c>
       <c r="E432" s="9">
-        <v>13035</v>
+        <v>13668</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -13703,7 +13706,7 @@
         <v>561</v>
       </c>
       <c r="E433" s="9">
-        <v>13036</v>
+        <v>13669</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -13720,7 +13723,7 @@
         <v>565</v>
       </c>
       <c r="E434" s="9">
-        <v>13037</v>
+        <v>13670</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -13737,7 +13740,7 @@
         <v>572</v>
       </c>
       <c r="E435" s="9">
-        <v>13038</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -13754,7 +13757,7 @@
         <v>579</v>
       </c>
       <c r="E436" s="9">
-        <v>13039</v>
+        <v>13672</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -13771,7 +13774,7 @@
         <v>585</v>
       </c>
       <c r="E437" s="9">
-        <v>13040</v>
+        <v>13673</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -13788,7 +13791,7 @@
         <v>588</v>
       </c>
       <c r="E438" s="9">
-        <v>13041</v>
+        <v>13674</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -13805,7 +13808,7 @@
         <v>595</v>
       </c>
       <c r="E439" s="9">
-        <v>13042</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -13822,7 +13825,7 @@
         <v>600</v>
       </c>
       <c r="E440" s="9">
-        <v>13043</v>
+        <v>13676</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -13839,7 +13842,7 @@
         <v>605</v>
       </c>
       <c r="E441" s="9">
-        <v>13044</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -13856,7 +13859,7 @@
         <v>609</v>
       </c>
       <c r="E442" s="9">
-        <v>13045</v>
+        <v>13678</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -13871,7 +13874,7 @@
       </c>
       <c r="D443" s="9"/>
       <c r="E443" s="9">
-        <v>13046</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -13888,7 +13891,7 @@
         <v>619</v>
       </c>
       <c r="E444" s="9">
-        <v>13047</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -13903,7 +13906,7 @@
       </c>
       <c r="D445" s="9"/>
       <c r="E445" s="9">
-        <v>13048</v>
+        <v>13681</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -13917,15 +13920,15 @@
         <v>4</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E446" s="9">
-        <v>13049</v>
+        <v>13682</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>570</v>
@@ -13934,15 +13937,15 @@
         <v>4</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E447" s="9">
-        <v>13050</v>
+        <v>13683</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>570</v>
@@ -13951,15 +13954,15 @@
         <v>4</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E448" s="9">
-        <v>13051</v>
+        <v>13684</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>570</v>
@@ -13968,15 +13971,15 @@
         <v>4</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E449" s="9">
-        <v>13052</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>570</v>
@@ -13985,42 +13988,42 @@
         <v>4</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E450" s="9">
-        <v>13053</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C451" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E451" s="9">
-        <v>13054</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C452" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D452" s="9"/>
       <c r="E452" s="9">
-        <v>13055</v>
+        <v>13688</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -14028,1495 +14031,1495 @@
         <v>216</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C453" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E453" s="9">
-        <v>13056</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C454" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E454" s="9">
-        <v>13057</v>
+        <v>13690</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C455" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E455" s="9">
-        <v>13058</v>
+        <v>13691</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B456" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C456" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D456" s="4" t="s">
-        <v>682</v>
-      </c>
       <c r="E456" s="9">
-        <v>13059</v>
+        <v>13692</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E457" s="9">
-        <v>13060</v>
+        <v>13693</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C458" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E458" s="9">
-        <v>13061</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C459" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E459" s="9">
-        <v>13062</v>
+        <v>13695</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C460" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E460" s="9">
-        <v>13063</v>
+        <v>13696</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C461" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B461" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C461" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D461" s="4" t="s">
-        <v>707</v>
-      </c>
       <c r="E461" s="9">
-        <v>13064</v>
+        <v>13697</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C462" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E462" s="9">
-        <v>13065</v>
+        <v>13698</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C463" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E463" s="9">
-        <v>13066</v>
+        <v>13699</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C464" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E464" s="9">
-        <v>13067</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E465" s="9">
-        <v>13068</v>
+        <v>13701</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C466" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="B466" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C466" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D466" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="E466" s="9">
-        <v>13069</v>
+        <v>13702</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C467" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E467" s="9">
-        <v>13070</v>
+        <v>13703</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C468" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E468" s="9">
-        <v>13071</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E469" s="9">
-        <v>13072</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C470" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E470" s="9">
-        <v>13073</v>
+        <v>13706</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C471" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="B471" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="C471" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D471" s="4" t="s">
-        <v>933</v>
-      </c>
       <c r="E471" s="9">
-        <v>13074</v>
+        <v>13707</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C472" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E472" s="9">
-        <v>13075</v>
+        <v>13708</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C473" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E473" s="9">
-        <v>13076</v>
+        <v>13709</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C474" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E474" s="9">
-        <v>13077</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C475" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E475" s="9">
-        <v>13078</v>
+        <v>13711</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C476" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E476" s="9">
-        <v>13079</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="11" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C477" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E477" s="9">
-        <v>13080</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C478" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E478" s="9">
-        <v>13081</v>
+        <v>13714</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C479" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E479" s="9">
-        <v>13082</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C480" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E480" s="9">
-        <v>13083</v>
+        <v>13716</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C481" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D481" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="B481" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="C481" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D481" s="4" t="s">
-        <v>954</v>
-      </c>
       <c r="E481" s="9">
-        <v>13084</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C482" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E482" s="9">
-        <v>13085</v>
+        <v>13718</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E483" s="9">
-        <v>13086</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C484" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E484" s="9">
-        <v>13087</v>
+        <v>13720</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C485" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E485" s="9">
-        <v>13088</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C486" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E486" s="9">
-        <v>13089</v>
+        <v>13722</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C487" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E487" s="9">
-        <v>13090</v>
+        <v>13723</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C488" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E488" s="9">
-        <v>13091</v>
+        <v>13724</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C489" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E489" s="9">
-        <v>13092</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C490" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E490" s="9">
-        <v>13093</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C491" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E491" s="9">
-        <v>13094</v>
+        <v>13727</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C492" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E492" s="9">
-        <v>13095</v>
+        <v>13728</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C493" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E493" s="9">
-        <v>13096</v>
+        <v>13729</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C494" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E494" s="9">
-        <v>13097</v>
+        <v>13730</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C495" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E495" s="9">
-        <v>13098</v>
+        <v>13731</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C496" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E496" s="9">
-        <v>13099</v>
+        <v>13732</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C497" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E497" s="9">
-        <v>13100</v>
+        <v>13733</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C498" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E498" s="9">
-        <v>13101</v>
+        <v>13734</v>
       </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="4" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C499" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E499" s="9">
-        <v>13102</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="4" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C500" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E500" s="9">
-        <v>13103</v>
+        <v>13736</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C501" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E501" s="9">
-        <v>13104</v>
+        <v>13737</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C502" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E502" s="9">
-        <v>13105</v>
+        <v>13738</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C503" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E503" s="9">
-        <v>13106</v>
+        <v>13739</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C504" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D504" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="B504" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C504" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D504" s="4" t="s">
-        <v>1001</v>
-      </c>
       <c r="E504" s="9">
-        <v>13107</v>
+        <v>13740</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C505" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E505" s="9">
-        <v>13108</v>
+        <v>13741</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C506" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E506" s="9">
-        <v>13109</v>
+        <v>13742</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C507" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E507" s="9">
-        <v>13110</v>
+        <v>13743</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C508" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D508" s="9"/>
       <c r="E508" s="9">
-        <v>13111</v>
+        <v>13744</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C509" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E509" s="9">
-        <v>13112</v>
+        <v>13745</v>
       </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C510" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E510" s="9">
-        <v>13113</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C511" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E511" s="9">
-        <v>13114</v>
+        <v>13747</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C512" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E512" s="9">
-        <v>13115</v>
+        <v>13748</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C513" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E513" s="9">
-        <v>13116</v>
+        <v>13749</v>
       </c>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C514" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E514" s="9">
-        <v>13117</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C515" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D515" s="9"/>
       <c r="E515" s="9">
-        <v>13118</v>
+        <v>13751</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C516" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D516" s="4"/>
       <c r="E516" s="9">
-        <v>13119</v>
+        <v>13752</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C517" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E517" s="9">
-        <v>13120</v>
+        <v>13753</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C518" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E518" s="9">
-        <v>13121</v>
+        <v>13754</v>
       </c>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C519" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E519" s="9">
-        <v>13122</v>
+        <v>13755</v>
       </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C520" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E520" s="9">
-        <v>13123</v>
+        <v>13756</v>
       </c>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C521" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E521" s="9">
-        <v>13124</v>
+        <v>13757</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="4" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C522" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E522" s="9">
-        <v>13125</v>
+        <v>13758</v>
       </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C523" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E523" s="9">
-        <v>13126</v>
+        <v>13759</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C524" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E524" s="9">
-        <v>13127</v>
+        <v>13760</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="4" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C525" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E525" s="9">
-        <v>13128</v>
+        <v>13761</v>
       </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C526" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E526" s="9">
-        <v>13129</v>
+        <v>13762</v>
       </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C527" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E527" s="9">
-        <v>13130</v>
+        <v>13763</v>
       </c>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C528" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E528" s="9">
-        <v>13131</v>
+        <v>13764</v>
       </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C529" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D529" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="B529" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C529" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D529" s="4" t="s">
-        <v>1047</v>
-      </c>
       <c r="E529" s="9">
-        <v>13132</v>
+        <v>13765</v>
       </c>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C530" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D530" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E530" s="9">
-        <v>13133</v>
+        <v>13766</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C531" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E531" s="9">
-        <v>13134</v>
+        <v>13767</v>
       </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C532" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E532" s="9">
-        <v>13135</v>
+        <v>13768</v>
       </c>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C533" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E533" s="9">
-        <v>13136</v>
+        <v>13769</v>
       </c>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C534" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E534" s="9">
-        <v>13137</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C535" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E535" s="9">
-        <v>13138</v>
+        <v>13771</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C536" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E536" s="9">
-        <v>13139</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="4" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C537" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E537" s="9">
-        <v>13140</v>
+        <v>13773</v>
       </c>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C538" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E538" s="9">
-        <v>13141</v>
+        <v>13774</v>
       </c>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C539" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E539" s="9">
-        <v>13142</v>
+        <v>13775</v>
       </c>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C540" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D540" s="9"/>
       <c r="E540" s="9">
-        <v>13143</v>
+        <v>13776</v>
       </c>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="4" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C541" s="8" t="s">
         <v>4</v>
@@ -15525,15 +15528,15 @@
         <v>423</v>
       </c>
       <c r="E541" s="9">
-        <v>13144</v>
+        <v>13777</v>
       </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C542" s="8" t="s">
         <v>4</v>
@@ -15542,15 +15545,15 @@
         <v>430</v>
       </c>
       <c r="E542" s="9">
-        <v>13145</v>
+        <v>13778</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C543" s="8" t="s">
         <v>4</v>
@@ -15559,15 +15562,15 @@
         <v>442</v>
       </c>
       <c r="E543" s="9">
-        <v>13146</v>
+        <v>13779</v>
       </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C544" s="8" t="s">
         <v>4</v>
@@ -15576,1185 +15579,1185 @@
         <v>448</v>
       </c>
       <c r="E544" s="9">
-        <v>13147</v>
+        <v>13780</v>
       </c>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="4" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C545" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D545" s="9"/>
       <c r="E545" s="9">
-        <v>13148</v>
+        <v>13781</v>
       </c>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C546" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E546" s="9">
-        <v>13149</v>
+        <v>13782</v>
       </c>
     </row>
     <row r="547" spans="1:5" ht="16">
       <c r="A547" s="6" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C547" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E547" s="9">
-        <v>13150</v>
+        <v>13783</v>
       </c>
     </row>
     <row r="548" spans="1:5" ht="16">
       <c r="A548" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C548" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="E548" s="9">
-        <v>13151</v>
+        <v>13784</v>
       </c>
     </row>
     <row r="549" spans="1:5" ht="16">
       <c r="A549" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C549" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E549" s="9">
-        <v>13152</v>
+        <v>13785</v>
       </c>
     </row>
     <row r="550" spans="1:5" ht="16">
       <c r="A550" s="6" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C550" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="E550" s="9">
-        <v>13153</v>
+        <v>13786</v>
       </c>
     </row>
     <row r="551" spans="1:5" ht="16">
       <c r="A551" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C551" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E551" s="9">
-        <v>13154</v>
+        <v>13787</v>
       </c>
     </row>
     <row r="552" spans="1:5" ht="16">
       <c r="A552" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C552" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E552" s="9">
-        <v>13155</v>
+        <v>13788</v>
       </c>
     </row>
     <row r="553" spans="1:5" ht="16">
       <c r="A553" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C553" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E553" s="9">
-        <v>13156</v>
+        <v>13789</v>
       </c>
     </row>
     <row r="554" spans="1:5" ht="16">
       <c r="A554" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C554" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E554" s="9">
-        <v>13157</v>
+        <v>13790</v>
       </c>
     </row>
     <row r="555" spans="1:5" ht="16">
       <c r="A555" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C555" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E555" s="9">
-        <v>13158</v>
+        <v>13791</v>
       </c>
     </row>
     <row r="556" spans="1:5" ht="16">
       <c r="A556" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C556" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E556" s="9">
-        <v>13159</v>
+        <v>13792</v>
       </c>
     </row>
     <row r="557" spans="1:5" ht="16">
       <c r="A557" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C557" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E557" s="9">
-        <v>13160</v>
+        <v>13793</v>
       </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C558" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E558" s="9">
-        <v>13161</v>
+        <v>13794</v>
       </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C559" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E559" s="9">
-        <v>13162</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C560" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E560" s="9">
-        <v>13163</v>
+        <v>13796</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C561" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E561" s="9">
-        <v>13164</v>
+        <v>13797</v>
       </c>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="6" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C562" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E562" s="9">
-        <v>13165</v>
+        <v>13798</v>
       </c>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C563" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E563" s="9">
-        <v>13166</v>
+        <v>13799</v>
       </c>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="6" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C564" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E564" s="9">
-        <v>13167</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C565" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E565" s="9">
-        <v>13168</v>
+        <v>13801</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C566" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E566" s="9">
-        <v>13169</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C567" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E567" s="9">
-        <v>13170</v>
+        <v>13803</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C568" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E568" s="9">
-        <v>13171</v>
+        <v>13804</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C569" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E569" s="9">
-        <v>13172</v>
+        <v>13805</v>
       </c>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C570" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E570" s="9">
-        <v>13173</v>
+        <v>13806</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C571" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E571" s="9">
-        <v>13174</v>
+        <v>13807</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C572" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E572" s="9">
-        <v>13175</v>
+        <v>13808</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C573" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E573" s="9">
-        <v>13176</v>
+        <v>13809</v>
       </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C574" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E574" s="9">
-        <v>13177</v>
+        <v>13810</v>
       </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C575" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D575" s="9"/>
       <c r="E575" s="9">
-        <v>13178</v>
+        <v>13811</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C576" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E576" s="9">
-        <v>13179</v>
+        <v>13812</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C577" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E577" s="9">
-        <v>13180</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C578" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E578" s="9">
-        <v>13181</v>
+        <v>13814</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C579" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D579" s="9"/>
       <c r="E579" s="9">
-        <v>13182</v>
+        <v>13815</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C580" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E580" s="9">
-        <v>13183</v>
+        <v>13816</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C581" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E581" s="9">
-        <v>13184</v>
+        <v>13817</v>
       </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C582" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E582" s="9">
-        <v>13185</v>
+        <v>13818</v>
       </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C583" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E583" s="9">
-        <v>13186</v>
+        <v>13819</v>
       </c>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C584" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D584" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="B584" s="4" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C584" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D584" s="4" t="s">
-        <v>1139</v>
-      </c>
       <c r="E584" s="9">
-        <v>13187</v>
+        <v>13820</v>
       </c>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C585" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E585" s="9">
-        <v>13188</v>
+        <v>13821</v>
       </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C586" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E586" s="9">
-        <v>13189</v>
+        <v>13822</v>
       </c>
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C587" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D587" s="9"/>
       <c r="E587" s="9">
-        <v>13190</v>
+        <v>13823</v>
       </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C588" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E588" s="9">
-        <v>13191</v>
+        <v>13824</v>
       </c>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="4" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C589" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E589" s="9">
-        <v>13192</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C590" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E590" s="9">
-        <v>13193</v>
+        <v>13826</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="4" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C591" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E591" s="9">
-        <v>13194</v>
+        <v>13827</v>
       </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C592" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E592" s="9">
-        <v>13195</v>
+        <v>13828</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C593" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E593" s="9">
-        <v>13196</v>
+        <v>13829</v>
       </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="4" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C594" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E594" s="9">
-        <v>13197</v>
+        <v>13830</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="4" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C595" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E595" s="9">
-        <v>13198</v>
+        <v>13831</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="4" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C596" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E596" s="9">
-        <v>13199</v>
+        <v>13832</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="4" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C597" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E597" s="9">
-        <v>13200</v>
+        <v>13833</v>
       </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="4" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C598" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E598" s="9">
-        <v>13201</v>
+        <v>13834</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C599" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E599" s="9">
-        <v>13202</v>
+        <v>13835</v>
       </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C600" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E600" s="9">
-        <v>13203</v>
+        <v>13836</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C601" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D601" s="4"/>
       <c r="E601" s="9">
-        <v>13204</v>
+        <v>13837</v>
       </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C602" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E602" s="9">
-        <v>13205</v>
+        <v>13838</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C603" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E603" s="9">
-        <v>13206</v>
+        <v>13839</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C604" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D604" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="B604" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C604" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D604" s="4" t="s">
-        <v>1178</v>
-      </c>
       <c r="E604" s="9">
-        <v>13207</v>
+        <v>13840</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="4" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C605" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E605" s="9">
-        <v>13208</v>
+        <v>13841</v>
       </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C606" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E606" s="9">
-        <v>13209</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C607" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E607" s="9">
-        <v>13210</v>
+        <v>13843</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="4" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C608" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E608" s="9">
-        <v>13211</v>
+        <v>13844</v>
       </c>
     </row>
     <row r="609" spans="1:5">
       <c r="A609" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C609" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E609" s="9">
-        <v>13212</v>
+        <v>13845</v>
       </c>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C610" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E610" s="9">
-        <v>13213</v>
+        <v>13846</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C611" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E611" s="9">
-        <v>13214</v>
+        <v>13847</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="4" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C612" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E612" s="9">
-        <v>13215</v>
+        <v>13848</v>
       </c>
     </row>
     <row r="613" spans="1:5">
       <c r="A613" s="4" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C613" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E613" s="9">
-        <v>13216</v>
+        <v>13849</v>
       </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C614" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D614" s="9"/>
       <c r="E614" s="9">
-        <v>13217</v>
+        <v>13850</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -16764,7 +16767,7 @@
         <v>4</v>
       </c>
       <c r="E615" s="9">
-        <v>13218</v>
+        <v>13851</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -16774,7 +16777,7 @@
         <v>4</v>
       </c>
       <c r="E616" s="9">
-        <v>13219</v>
+        <v>13852</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -16784,7 +16787,7 @@
         <v>4</v>
       </c>
       <c r="E617" s="9">
-        <v>13220</v>
+        <v>13853</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -16794,7 +16797,7 @@
         <v>4</v>
       </c>
       <c r="E618" s="9">
-        <v>13221</v>
+        <v>13854</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -16804,7 +16807,7 @@
         <v>4</v>
       </c>
       <c r="E619" s="9">
-        <v>13222</v>
+        <v>13855</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -16814,7 +16817,7 @@
         <v>4</v>
       </c>
       <c r="E620" s="9">
-        <v>13223</v>
+        <v>13856</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -16824,7 +16827,7 @@
         <v>4</v>
       </c>
       <c r="E621" s="9">
-        <v>13224</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -16834,7 +16837,7 @@
         <v>4</v>
       </c>
       <c r="E622" s="9">
-        <v>13225</v>
+        <v>13858</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -16844,7 +16847,7 @@
         <v>4</v>
       </c>
       <c r="E623" s="9">
-        <v>13226</v>
+        <v>13859</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -16854,7 +16857,7 @@
         <v>4</v>
       </c>
       <c r="E624" s="9">
-        <v>13227</v>
+        <v>13860</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -16864,7 +16867,7 @@
         <v>4</v>
       </c>
       <c r="E625" s="9">
-        <v>13228</v>
+        <v>13861</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -16874,7 +16877,7 @@
         <v>4</v>
       </c>
       <c r="E626" s="9">
-        <v>13229</v>
+        <v>13862</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -16884,7 +16887,7 @@
         <v>4</v>
       </c>
       <c r="E627" s="9">
-        <v>13230</v>
+        <v>13863</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -16894,7 +16897,7 @@
         <v>4</v>
       </c>
       <c r="E628" s="9">
-        <v>13231</v>
+        <v>13864</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -16904,7 +16907,7 @@
         <v>4</v>
       </c>
       <c r="E629" s="9">
-        <v>13232</v>
+        <v>13865</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -16914,7 +16917,7 @@
         <v>4</v>
       </c>
       <c r="E630" s="9">
-        <v>13233</v>
+        <v>13866</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -16924,7 +16927,7 @@
         <v>4</v>
       </c>
       <c r="E631" s="9">
-        <v>13234</v>
+        <v>13867</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -16934,7 +16937,7 @@
         <v>4</v>
       </c>
       <c r="E632" s="9">
-        <v>13235</v>
+        <v>13868</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -16944,7 +16947,7 @@
         <v>4</v>
       </c>
       <c r="E633" s="9">
-        <v>13236</v>
+        <v>13869</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -16954,7 +16957,7 @@
         <v>4</v>
       </c>
       <c r="E634" s="9">
-        <v>13237</v>
+        <v>13870</v>
       </c>
     </row>
   </sheetData>
